--- a/电脑桌面背景上显示姓名/课程表.xlsx
+++ b/电脑桌面背景上显示姓名/课程表.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徐冬青\source\repos\电脑桌面背景上显示姓名\电脑桌面背景上显示姓名\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C234C874-807E-473F-8E6E-0BF318BE8F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85C17C-C285-4A2A-8BFC-B009D626AEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="3" xr2:uid="{19CCD584-6CB7-4707-9CA0-797757A316D9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="课程表" sheetId="1" r:id="rId1"/>
+    <sheet name="课程表" sheetId="2" r:id="rId1"/>
     <sheet name="配置表" sheetId="3" r:id="rId2"/>
-    <sheet name="7.6" sheetId="2" r:id="rId3"/>
-    <sheet name="7.5" sheetId="4" r:id="rId4"/>
+    <sheet name="7.1" sheetId="4" r:id="rId3"/>
+    <sheet name="7.2" sheetId="5" r:id="rId4"/>
+    <sheet name="7.3" sheetId="6" r:id="rId5"/>
+    <sheet name="7.5" sheetId="8" r:id="rId6"/>
+    <sheet name="7.4" sheetId="7" r:id="rId7"/>
+    <sheet name="7.6" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,106 +32,1006 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="322">
+  <si>
+    <t>16：16-17：35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15：46-16：15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14：55-15：45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-14：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：56-11：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：05-10：55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：46-9：40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>课节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周一</t>
+    <t>都不显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周二</t>
+    <t>显示姓名机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周五</t>
+    <t>显示机号姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周三</t>
+    <t>只显示机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周四</t>
+    <t>只显示姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王柏静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.214.40.105</t>
-  </si>
-  <si>
-    <t>卢韵嘉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 192.168.0.107</t>
+    <t>只显示姓名</t>
   </si>
   <si>
     <t>显示方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只显示姓名</t>
-  </si>
-  <si>
-    <t>只显示姓名</t>
+    <t>10.99.0.97</t>
+  </si>
+  <si>
+    <t>白思墨</t>
+  </si>
+  <si>
+    <t>10.99.0.96</t>
+  </si>
+  <si>
+    <t>吕俊良</t>
+  </si>
+  <si>
+    <t>10.99.0.95</t>
+  </si>
+  <si>
+    <t>吕映雪</t>
+  </si>
+  <si>
+    <t>10.99.0.94</t>
+  </si>
+  <si>
+    <t>王皓轩</t>
+  </si>
+  <si>
+    <t>10.99.0.93</t>
+  </si>
+  <si>
+    <t>张如意</t>
+  </si>
+  <si>
+    <t>10.99.0.92</t>
+  </si>
+  <si>
+    <t>李沛欣</t>
+  </si>
+  <si>
+    <t>10.99.0.91</t>
+  </si>
+  <si>
+    <t>张峻烨</t>
+  </si>
+  <si>
+    <t>10.99.0.90</t>
+  </si>
+  <si>
+    <t>王雯萱</t>
+  </si>
+  <si>
+    <t>10.99.0.89</t>
+  </si>
+  <si>
+    <t>王尉旗</t>
+  </si>
+  <si>
+    <t>10.99.0.88</t>
+  </si>
+  <si>
+    <t>于子凯</t>
+  </si>
+  <si>
+    <t>10.99.0.87</t>
+  </si>
+  <si>
+    <t>杨景超</t>
+  </si>
+  <si>
+    <t>10.99.0.86</t>
+  </si>
+  <si>
+    <t>孙琳涵</t>
+  </si>
+  <si>
+    <t>10.99.0.85</t>
+  </si>
+  <si>
+    <t>宋语珺</t>
+  </si>
+  <si>
+    <t>10.99.0.84</t>
+  </si>
+  <si>
+    <t>孙得智</t>
+  </si>
+  <si>
+    <t>10.99.0.83</t>
+  </si>
+  <si>
+    <t>叶荣轩</t>
+  </si>
+  <si>
+    <t>10.99.0.82</t>
+  </si>
+  <si>
+    <t>黄瀚阳</t>
+  </si>
+  <si>
+    <t>10.99.0.81</t>
+  </si>
+  <si>
+    <t>李新羽</t>
+  </si>
+  <si>
+    <t>10.99.0.80</t>
+  </si>
+  <si>
+    <t>鹿玥婷</t>
+  </si>
+  <si>
+    <t>10.99.0.79</t>
+  </si>
+  <si>
+    <t>周子豪</t>
+  </si>
+  <si>
+    <t>10.99.0.78</t>
+  </si>
+  <si>
+    <t>王虹茜</t>
+  </si>
+  <si>
+    <t>10.99.0.77</t>
+  </si>
+  <si>
+    <t>柳涵露</t>
+  </si>
+  <si>
+    <t>10.99.0.76</t>
+  </si>
+  <si>
+    <t>赵英淼</t>
+  </si>
+  <si>
+    <t>10.99.0.75</t>
+  </si>
+  <si>
+    <t>张佳彤</t>
+  </si>
+  <si>
+    <t>10.99.0.74</t>
+  </si>
+  <si>
+    <t>赵英涵</t>
+  </si>
+  <si>
+    <t>10.99.0.73</t>
+  </si>
+  <si>
+    <t>王振东</t>
+  </si>
+  <si>
+    <t>10.99.0.72</t>
+  </si>
+  <si>
+    <t>王雯瑶</t>
+  </si>
+  <si>
+    <t>10.99.0.71</t>
+  </si>
+  <si>
+    <t>刘宝聪</t>
+  </si>
+  <si>
+    <t>10.99.0.70</t>
+  </si>
+  <si>
+    <t>张欣怡</t>
+  </si>
+  <si>
+    <t>10.99.0.69</t>
+  </si>
+  <si>
+    <t>蒋雨诺</t>
+  </si>
+  <si>
+    <t>10.99.0.68</t>
+  </si>
+  <si>
+    <t>黄梓竹</t>
+  </si>
+  <si>
+    <t>10.99.0.67</t>
+  </si>
+  <si>
+    <t>李欣颖</t>
+  </si>
+  <si>
+    <t>10.99.0.66</t>
+  </si>
+  <si>
+    <t>杨梓卓</t>
+  </si>
+  <si>
+    <t>10.99.0.65</t>
+  </si>
+  <si>
+    <t>戴梦瑶</t>
+  </si>
+  <si>
+    <t>10.99.0.64</t>
+  </si>
+  <si>
+    <t>贾一山</t>
+  </si>
+  <si>
+    <t>10.99.0.63</t>
+  </si>
+  <si>
+    <t>杜铭</t>
+  </si>
+  <si>
+    <t>10.99.0.62</t>
+  </si>
+  <si>
+    <t>徐恺</t>
+  </si>
+  <si>
+    <t>10.99.0.61</t>
+  </si>
+  <si>
+    <t>徐西泽</t>
+  </si>
+  <si>
+    <t>10.99.0.60</t>
+  </si>
+  <si>
+    <t>朱志成</t>
+  </si>
+  <si>
+    <t>10.99.0.59</t>
+  </si>
+  <si>
+    <t>周怡辰</t>
+  </si>
+  <si>
+    <t>10.99.0.58</t>
+  </si>
+  <si>
+    <t>逄紫涵</t>
+  </si>
+  <si>
+    <t>10.99.0.57</t>
+  </si>
+  <si>
+    <t>孙梓皓</t>
+  </si>
+  <si>
+    <t>10.99.0.56</t>
+  </si>
+  <si>
+    <t>刘彤</t>
+  </si>
+  <si>
+    <t>10.99.0.55</t>
+  </si>
+  <si>
+    <t>王怡媛</t>
+  </si>
+  <si>
+    <t>10.99.0.54</t>
+  </si>
+  <si>
+    <t>敖玮</t>
+  </si>
+  <si>
+    <t>10.99.0.53</t>
+  </si>
+  <si>
+    <t>陈依以</t>
+  </si>
+  <si>
+    <t>10.99.0.52</t>
+  </si>
+  <si>
+    <t>曲建蓉</t>
+  </si>
+  <si>
+    <t>10.99.0.51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只显示机号</t>
+    <t>姜子尧</t>
+  </si>
+  <si>
+    <t>IP地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示机号姓名</t>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>都不显示</t>
+    <t>10.99.0.99</t>
+  </si>
+  <si>
+    <t>10.99.0.98</t>
+  </si>
+  <si>
+    <t>10.99.0.51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示姓名机号</t>
+    <t>IP地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周六</t>
+    <t>机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8：00-10：13</t>
+    <t>10.99.0.51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10：14-12：23</t>
+    <t>IP地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12：23-22：46</t>
+    <t>机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 192.168.0.104</t>
+    <t>盛帅潜</t>
+  </si>
+  <si>
+    <t>孙乙鹂</t>
+  </si>
+  <si>
+    <t>聂浚朗</t>
+  </si>
+  <si>
+    <t>潘紫萱</t>
+  </si>
+  <si>
+    <t>方梓羽</t>
+  </si>
+  <si>
+    <t>曲振源</t>
+  </si>
+  <si>
+    <t>刘子涵</t>
+  </si>
+  <si>
+    <t>张秀茹</t>
+  </si>
+  <si>
+    <t>任贵厚</t>
+  </si>
+  <si>
+    <t>于子恒</t>
+  </si>
+  <si>
+    <t>李科均</t>
+  </si>
+  <si>
+    <t>初咏骏</t>
+  </si>
+  <si>
+    <t>张亦菲</t>
+  </si>
+  <si>
+    <t>刘峻铭</t>
+  </si>
+  <si>
+    <t>刘真瑜</t>
+  </si>
+  <si>
+    <t>曹峻严</t>
+  </si>
+  <si>
+    <t>李佳璇</t>
+  </si>
+  <si>
+    <t>刘家和</t>
+  </si>
+  <si>
+    <t>王誉锦</t>
+  </si>
+  <si>
+    <t>刘洢如</t>
+  </si>
+  <si>
+    <t>王稼瑞</t>
+  </si>
+  <si>
+    <t>田育玮</t>
+  </si>
+  <si>
+    <t>金钰</t>
+  </si>
+  <si>
+    <t>姜宛和</t>
+  </si>
+  <si>
+    <t>王彦力</t>
+  </si>
+  <si>
+    <t>张高玮</t>
+  </si>
+  <si>
+    <t>姜心怡</t>
+  </si>
+  <si>
+    <t>汪小童</t>
+  </si>
+  <si>
+    <t>杨雨泽</t>
+  </si>
+  <si>
+    <t>王昊天</t>
+  </si>
+  <si>
+    <t>王雅萱</t>
+  </si>
+  <si>
+    <t>强轩豪</t>
+  </si>
+  <si>
+    <t>刘宜彤</t>
+  </si>
+  <si>
+    <t>陈怡好</t>
+  </si>
+  <si>
+    <t>王奇媛</t>
+  </si>
+  <si>
+    <t>于子涵</t>
+  </si>
+  <si>
+    <t>李昕畅</t>
+  </si>
+  <si>
+    <t>刘昱</t>
+  </si>
+  <si>
+    <t>邵佳萱</t>
+  </si>
+  <si>
+    <t>孙子涵</t>
+  </si>
+  <si>
+    <t>张雍锦</t>
+  </si>
+  <si>
+    <t>王琪智</t>
+  </si>
+  <si>
+    <t>王一励</t>
+  </si>
+  <si>
+    <t>姜早晴</t>
+  </si>
+  <si>
+    <t>陈薇雅</t>
+  </si>
+  <si>
+    <t>刘天城</t>
+  </si>
+  <si>
+    <t>牟宬希</t>
+  </si>
+  <si>
+    <t>石明涵</t>
+  </si>
+  <si>
+    <t>10.99.0.51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石涵宇</t>
+  </si>
+  <si>
+    <t>申浩琪</t>
+  </si>
+  <si>
+    <t>李曦萌</t>
+  </si>
+  <si>
+    <t>王镜霖</t>
+  </si>
+  <si>
+    <t>常凯杰</t>
+  </si>
+  <si>
+    <t>刘梦琪</t>
+  </si>
+  <si>
+    <t>高诗然</t>
+  </si>
+  <si>
+    <t>王策</t>
+  </si>
+  <si>
+    <t>贾梓溢</t>
+  </si>
+  <si>
+    <t>姜晨雪</t>
+  </si>
+  <si>
+    <t>辛佳颐</t>
+  </si>
+  <si>
+    <t>武雨涵</t>
+  </si>
+  <si>
+    <t>高玥茹</t>
+  </si>
+  <si>
+    <t>刘瀚文</t>
+  </si>
+  <si>
+    <t>刘佳彤</t>
+  </si>
+  <si>
+    <t>李金达</t>
+  </si>
+  <si>
+    <t>方钰涵</t>
+  </si>
+  <si>
+    <t>李金龙</t>
+  </si>
+  <si>
+    <t>吴昊阳</t>
+  </si>
+  <si>
+    <t>秦林峰</t>
+  </si>
+  <si>
+    <t>宁一洋</t>
+  </si>
+  <si>
+    <t>范星宇</t>
+  </si>
+  <si>
+    <t>张淳皓</t>
+  </si>
+  <si>
+    <t>马千惠</t>
+  </si>
+  <si>
+    <t>高雅</t>
+  </si>
+  <si>
+    <t>迟道恩</t>
+  </si>
+  <si>
+    <t>宫嘉</t>
+  </si>
+  <si>
+    <t>张恒瑞</t>
+  </si>
+  <si>
+    <t>张佳蓁</t>
+  </si>
+  <si>
+    <t>姜泓辰</t>
+  </si>
+  <si>
+    <t>林翔宇</t>
+  </si>
+  <si>
+    <t>宋子涵</t>
+  </si>
+  <si>
+    <t>徐梦涵</t>
+  </si>
+  <si>
+    <t>王茜</t>
+  </si>
+  <si>
+    <t>梁永琰</t>
+  </si>
+  <si>
+    <t>林子歌</t>
+  </si>
+  <si>
+    <t>李羚裳</t>
+  </si>
+  <si>
+    <t>赵子涵</t>
+  </si>
+  <si>
+    <t>顾梓轩</t>
+  </si>
+  <si>
+    <t>李玙璠</t>
+  </si>
+  <si>
+    <t>刘颜玮</t>
+  </si>
+  <si>
+    <t>卢韵嘉</t>
+  </si>
+  <si>
+    <t>张佳琳</t>
+  </si>
+  <si>
+    <t>赵锦意</t>
+  </si>
+  <si>
+    <t>王禹骁</t>
+  </si>
+  <si>
+    <t>王柏静</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟思潼</t>
+  </si>
+  <si>
+    <t>王梓旭</t>
+  </si>
+  <si>
+    <t>张东来</t>
+  </si>
+  <si>
+    <t>王梓宇</t>
+  </si>
+  <si>
+    <t>张润庚</t>
+  </si>
+  <si>
+    <t>杜芮萱</t>
+  </si>
+  <si>
+    <t>李宗泽</t>
+  </si>
+  <si>
+    <t>杨添惠</t>
+  </si>
+  <si>
+    <t>孙赫瞳</t>
+  </si>
+  <si>
+    <t>姜雅萍</t>
+  </si>
+  <si>
+    <t>孙翰一</t>
+  </si>
+  <si>
+    <t>隋嘉源</t>
+  </si>
+  <si>
+    <t>王韵雯</t>
+  </si>
+  <si>
+    <t>王辛正</t>
+  </si>
+  <si>
+    <t>宋浩铭</t>
+  </si>
+  <si>
+    <t>郭城屹</t>
+  </si>
+  <si>
+    <t>蒋梵语</t>
+  </si>
+  <si>
+    <t>马子贻</t>
+  </si>
+  <si>
+    <t>柴妮娜</t>
+  </si>
+  <si>
+    <t>王誉霖</t>
+  </si>
+  <si>
+    <t>李文琪</t>
+  </si>
+  <si>
+    <t>王雪萌</t>
+  </si>
+  <si>
+    <t>魏家阳</t>
+  </si>
+  <si>
+    <t>隋杰娉</t>
+  </si>
+  <si>
+    <t>高梓月</t>
+  </si>
+  <si>
+    <t>尹时成</t>
+  </si>
+  <si>
+    <t>牟晨铭</t>
+  </si>
+  <si>
+    <t>李娅菲</t>
+  </si>
+  <si>
+    <t>迟豪林</t>
+  </si>
+  <si>
+    <t>季浩源</t>
+  </si>
+  <si>
+    <t>王玺霖</t>
+  </si>
+  <si>
+    <t>宫菡希</t>
+  </si>
+  <si>
+    <t>王增轩</t>
+  </si>
+  <si>
+    <t>曲伟豪</t>
+  </si>
+  <si>
+    <t>李婉音</t>
+  </si>
+  <si>
+    <t>刘沐霖</t>
+  </si>
+  <si>
+    <t>施盛邺</t>
+  </si>
+  <si>
+    <t>陈晓炜</t>
+  </si>
+  <si>
+    <t>柳昱彤</t>
+  </si>
+  <si>
+    <t>徐立豪</t>
+  </si>
+  <si>
+    <t>曹佳欣</t>
+  </si>
+  <si>
+    <t>周姝含</t>
+  </si>
+  <si>
+    <t>武欣艺</t>
+  </si>
+  <si>
+    <t>王孔瑶</t>
+  </si>
+  <si>
+    <t>王帥</t>
+  </si>
+  <si>
+    <t>陈禹希</t>
+  </si>
+  <si>
+    <t>庞钰琪</t>
+  </si>
+  <si>
+    <t>韩翔宇</t>
+  </si>
+  <si>
+    <t>初永美</t>
+  </si>
+  <si>
+    <t>张可儿</t>
+  </si>
+  <si>
+    <t>杨泳希</t>
+  </si>
+  <si>
+    <t>张瀚月</t>
+  </si>
+  <si>
+    <t>徐佳欣</t>
+  </si>
+  <si>
+    <t>马瑞遥</t>
+  </si>
+  <si>
+    <t>张俊熙</t>
+  </si>
+  <si>
+    <t>夏紫嫣</t>
+  </si>
+  <si>
+    <t>黄子宸</t>
+  </si>
+  <si>
+    <t>王姿涵</t>
+  </si>
+  <si>
+    <t>权泰澄</t>
+  </si>
+  <si>
+    <t>王浩宇</t>
+  </si>
+  <si>
+    <t>王培诺</t>
+  </si>
+  <si>
+    <t>王刘阳</t>
+  </si>
+  <si>
+    <t>张涵</t>
+  </si>
+  <si>
+    <t>辛青阳</t>
+  </si>
+  <si>
+    <t>吴千凡</t>
+  </si>
+  <si>
+    <t>张瀚</t>
+  </si>
+  <si>
+    <t>王沈奕曈</t>
+  </si>
+  <si>
+    <t>张浚哲</t>
+  </si>
+  <si>
+    <t>宁浩宇</t>
+  </si>
+  <si>
+    <t>李琪</t>
+  </si>
+  <si>
+    <t>赵言卓</t>
+  </si>
+  <si>
+    <t>付涵</t>
+  </si>
+  <si>
+    <t>王玥涵</t>
+  </si>
+  <si>
+    <t>于佳新</t>
+  </si>
+  <si>
+    <t>于子轩</t>
+  </si>
+  <si>
+    <t>刘梓阳</t>
+  </si>
+  <si>
+    <t>滕炫童</t>
+  </si>
+  <si>
+    <t>侯雅奇</t>
+  </si>
+  <si>
+    <t>杨雯淇</t>
+  </si>
+  <si>
+    <t>于哲男</t>
+  </si>
+  <si>
+    <t>杜欣雨</t>
+  </si>
+  <si>
+    <t>卢炳臻</t>
+  </si>
+  <si>
+    <t>刘玉董</t>
+  </si>
+  <si>
+    <t>邵楷雯</t>
+  </si>
+  <si>
+    <t>曲家仪</t>
+  </si>
+  <si>
+    <t>关义森</t>
+  </si>
+  <si>
+    <t>徐晓乐</t>
+  </si>
+  <si>
+    <t>沙明谦</t>
+  </si>
+  <si>
+    <t>梁嘉禾</t>
+  </si>
+  <si>
+    <t>魏雪</t>
+  </si>
+  <si>
+    <t>侯涵瑞</t>
+  </si>
+  <si>
+    <t>吕驾林</t>
+  </si>
+  <si>
+    <t>吕汶谦</t>
+  </si>
+  <si>
+    <t>李俊哲</t>
+  </si>
+  <si>
+    <t>孙琪航</t>
+  </si>
+  <si>
+    <t>柳嘉宣</t>
+  </si>
+  <si>
+    <t>17：16-23：59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：00-8：45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,21 +1039,49 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,12 +1092,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -174,12 +1121,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -199,7 +1161,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -215,7 +1177,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -227,7 +1189,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -244,9 +1206,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -274,31 +1236,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -326,23 +1271,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,144 +1422,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1865A2-1272-48BF-88F2-080F238487B8}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9.06640625" style="1"/>
-    <col min="6" max="7" width="12.9296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="5" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="12.86328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.1</v>
+      </c>
       <c r="F2" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>7.1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.2</v>
+      </c>
       <c r="F3" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>7.6</v>
       </c>
-      <c r="G3" s="1">
+      <c r="C7" s="1">
         <v>7.6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="D7" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A10D9D-970E-4BA1-AD1A-4069BC7F5746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{807ADA12-69F9-4570-9D80-98706B7A8337}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$D$1:$D$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -640,60 +1731,541 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30310C70-CE1C-4437-BB76-34072C583CD6}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
+        <v>117</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -703,48 +2275,2784 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECF14CA-573A-47FE-BFFD-6476A4F4EEDF}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B28" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>318</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>319</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B31" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B30" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
